--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -33,10 +33,16 @@
     <t>Buat CRUD Master Obat</t>
   </si>
   <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>Bug data master obat tidak tampil</t>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>sukses</t>
+  </si>
+  <si>
+    <t>Buat CRUD Master Penyakit</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +424,7 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -446,6 +452,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
+        <v>44486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
         <v>44486</v>
       </c>
     </row>
